--- a/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
+++ b/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Information\Anodiam-Info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\IT_Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8033859-3306-46C1-8B27-75CF1A003E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8AB7E-8F2A-4F5E-87CB-191D8AFF025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP-QC" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>SlNo</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Resolved</t>
   </si>
 </sst>
 </file>
@@ -440,22 +443,22 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -509,7 +512,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -536,7 +539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -556,14 +559,16 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H4" s="6">
+        <v>45208</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -574,7 +579,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -585,7 +590,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -596,7 +601,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -607,7 +612,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -618,7 +623,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -629,7 +634,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -640,7 +645,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -651,7 +656,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -662,7 +667,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -673,7 +678,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -684,7 +689,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -695,7 +700,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -706,7 +711,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -717,7 +722,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -728,7 +733,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -739,7 +744,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -750,7 +755,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -761,7 +766,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -772,7 +777,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -783,7 +788,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -794,7 +799,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -805,7 +810,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -816,7 +821,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -827,7 +832,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -838,7 +843,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -849,7 +854,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -860,7 +865,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -871,7 +876,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
+++ b/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\IT_Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D8AB7E-8F2A-4F5E-87CB-191D8AFF025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C31E5-57AA-4CD0-A0AE-FAB7AFE633DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>Resolved</t>
+  </si>
+  <si>
+    <t>Please Add Co-Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,6 +170,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +454,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,20 +580,34 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1286437</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45209</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
+++ b/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\IT_Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9C31E5-57AA-4CD0-A0AE-FAB7AFE633DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806927E-9717-47F1-A092-D9F8FB95E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Please Add Co-Admin</t>
+  </si>
+  <si>
+    <t>Cannot Manage Attandence in Batch</t>
   </si>
 </sst>
 </file>
@@ -108,11 +111,9 @@
       <name val="Oxygen"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Oxygen"/>
     </font>
   </fonts>
   <fills count="3">
@@ -454,7 +455,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,15 +606,31 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1288731</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45211</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>

--- a/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
+++ b/Offline/BusinessManagement/IT_Support/ClassPlusSupportTickets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\IT_Support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806927E-9717-47F1-A092-D9F8FB95E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD903CA8-6F48-4581-B9D8-DAAF13AF9A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>SlNo</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Cannot Manage Attandence in Batch</t>
+  </si>
+  <si>
+    <t>Debashish Nath</t>
+  </si>
+  <si>
+    <t>Issues related to websites</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,6 +472,7 @@
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -519,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -544,7 +551,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -600,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -625,7 +632,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -633,13 +640,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1353506</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44934</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
